--- a/*12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
+++ b/*12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA71"/>
+  <dimension ref="A1:AA70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3285,10 +3285,15 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Andrew</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
@@ -3334,13 +3339,13 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
           <t>Driver,
-Optima</t>
+Red Van</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -3380,15 +3385,10 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -3528,7 +3528,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3626,10 +3626,14 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
@@ -3671,7 +3675,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3732,7 +3736,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3789,7 +3793,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3850,12 +3854,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Trainer</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -3915,12 +3919,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>@ Store, Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -3981,7 +3985,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Louisa</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4043,7 +4047,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Louisa</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4084,12 +4088,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Trey</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, New, 1st Day, work w/ Katie</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -4118,21 +4122,9 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Trey</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>@ Store, New, 1st Day, work w/ Katie</t>
-        </is>
-      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -4189,7 +4181,11 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -4220,7 +4216,7 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -4245,39 +4241,6 @@
       <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="inlineStr"/>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
-      <c r="AA71" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/*12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
+++ b/*12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
@@ -1128,7 +1128,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t xml:space="preserve">FULL STORE RESET - REMAPPED </t>
+          <t xml:space="preserve">FULL RESET - REMAPPED </t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>

--- a/*12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
+++ b/*12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA70"/>
+  <dimension ref="A1:AA74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3438,7 +3438,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>5:15 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3536,7 +3536,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>*RAJ SAME OWNER AS ABOVE STORES</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3585,7 +3585,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>AMOCO, GREENFIELD</t>
+          <t>WEBER OIL, WHITELAW</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3638,7 +3638,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>5030 W LOOMIS RD</t>
+          <t>138 E MENASHA AVE</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3687,7 +3687,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/FkrbNHMzSHcrU1kc7</t>
+          <t>https://goo.gl/maps/w7LKm7QZ1CxrpcUv5</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3746,7 +3746,11 @@
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TO FOLLOW   </t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
@@ -3802,21 +3806,13 @@
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Wht Camry available, Equip</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
@@ -3864,7 +3860,11 @@
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>WEBER OIL, KIEL</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
@@ -3929,7 +3929,11 @@
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>206 FREMONT ST</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
@@ -3995,7 +3999,11 @@
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/p3aroENsuduq7BKH8</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
@@ -4057,7 +4065,11 @@
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TO FOLLOW   </t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
@@ -4098,7 +4110,11 @@
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
@@ -4127,7 +4143,11 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>WEBER OIL, NEW HOLSTEIN</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
@@ -4156,7 +4176,11 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2305 CALUMET DR</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
@@ -4189,7 +4213,11 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/RgcVCFqCdQ8xDzQX7</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
@@ -4241,6 +4269,170 @@
       <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="inlineStr"/>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Wht Camry</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Kirsten</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/*12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
+++ b/*12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
@@ -2743,7 +2743,11 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>APPROX 10/11:00 AM</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
@@ -2787,21 +2791,13 @@
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Wht Camry available, Equip</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
@@ -2844,14 +2840,10 @@
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>SAI MART, CALEDONIA</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2894,7 +2886,11 @@
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>13600 7 MILE RD</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
@@ -2947,7 +2943,11 @@
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/PJ1zkc8GEH1Q3B4G7</t>
+        </is>
+      </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
@@ -2997,11 +2997,7 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>6:30 AM RACINE COURT(HWY 43 &amp; Y)</t>
-        </is>
-      </c>
+      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
@@ -3041,13 +3037,21 @@
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Wht Camry available, Equip</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
@@ -3090,10 +3094,14 @@
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3135,12 +3143,12 @@
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>KANSASVILLE CITGO QUICK MART</t>
-        </is>
-      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
@@ -3177,11 +3185,7 @@
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>23010 DURAND AVE</t>
-        </is>
-      </c>
+      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
@@ -3242,11 +3246,7 @@
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/QZs8ZSjv9eL2</t>
-        </is>
-      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
@@ -3310,7 +3310,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>6:30 AM RACINE COURT(HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3356,7 +3356,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3397,7 +3397,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>TWIN LAKES CITGO, TWIN LAKES</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3446,7 +3446,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>410 N LAKE AVE</t>
+          <t>KANSASVILLE CITGO QUICK MART</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3495,7 +3495,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/k9s2GwpMbH32</t>
+          <t>23010 DURAND AVE</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3544,7 +3544,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/QZs8ZSjv9eL2</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3593,7 +3593,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3646,7 +3646,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>SALEM MINI MART</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3695,7 +3695,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>8246 ANTIOCH RD</t>
+          <t>TWIN LAKES CITGO, TWIN LAKES</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3756,7 +3756,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/ZogqdPdZb8oiCNZXA</t>
+          <t>410 N LAKE AVE</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3815,7 +3815,11 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/k9s2GwpMbH32</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
@@ -3867,21 +3871,13 @@
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t xml:space="preserve">TO FOLLOW    </t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
@@ -3936,22 +3932,13 @@
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
@@ -4006,14 +3993,10 @@
       </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>SALEM MINI MART</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -4073,7 +4056,11 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>8246 ANTIOCH RD</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
@@ -4118,7 +4105,11 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/ZogqdPdZb8oiCNZXA</t>
+        </is>
+      </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
@@ -4183,9 +4174,21 @@
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
@@ -4220,9 +4223,22 @@
       </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
@@ -4253,8 +4269,16 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>

--- a/*12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
+++ b/*12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
@@ -3148,7 +3148,11 @@
           <t>3)</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
@@ -3646,7 +3650,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">DC5-FINANCIAL    </t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3935,7 +3939,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4142,7 +4146,11 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Carlie and Trevor meet at 5:45 am in Grafton before going to Racine Court Park n Ride</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
@@ -4174,21 +4182,9 @@
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
@@ -4225,18 +4221,17 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="P69" t="inlineStr"/>
@@ -4271,15 +4266,20 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
@@ -4318,8 +4318,16 @@
         </is>
       </c>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>

--- a/*12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
+++ b/*12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
@@ -4146,11 +4146,7 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Carlie and Trevor meet at 5:45 am in Grafton before going to Racine Court Park n Ride</t>
-        </is>
-      </c>
+      <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
@@ -4182,9 +4178,21 @@
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
@@ -4221,17 +4229,18 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="P69" t="inlineStr"/>
@@ -4266,20 +4275,11 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
@@ -4318,16 +4318,8 @@
         </is>
       </c>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>

--- a/*12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
+++ b/*12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
@@ -4278,7 +4278,11 @@
           <t>3)</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Lexi</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>

--- a/*12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
+++ b/*12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
@@ -1426,10 +1426,14 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Altima Stools</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr">
         <is>
@@ -1503,14 +1507,10 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>Altima Stools</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1784,10 +1784,14 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr">
         <is>
@@ -1858,14 +1862,10 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1985,10 +1985,14 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>work w/ Carlie</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr">
         <is>
@@ -2043,21 +2047,9 @@
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>work w/ Carlie</t>
-        </is>
-      </c>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr">
         <is>
@@ -2162,7 +2154,11 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>5:45 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr">
@@ -2236,7 +2232,11 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr">
@@ -2295,7 +2295,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>5:45 AM OFFICE MEET</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>O'CONNELL'S LAKESIDE LIQUOR, MONONA</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2381,7 +2381,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6325 MONONA DRIVE</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2443,7 +2443,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>O'CONNELL'S LAKESIDE LIQUOR, MONONA</t>
+          <t>https://goo.gl/maps/B3TANgvBHum</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2504,7 +2504,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>6325 MONONA DRIVE</t>
+          <t>APPROX 10:00/10:30 AM START</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2557,7 +2557,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/B3TANgvBHum</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2610,7 +2610,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>APPROX 10:00/10:30 AM START</t>
+          <t>REDLINE MOBIL, DEFOREST</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2667,7 +2667,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>937 E HOLUM ST</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>REDLINE MOBIL, DEFOREST</t>
+          <t>https://goo.gl/maps/uTZdgEKHTh12</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2755,11 +2755,7 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>937 E HOLUM ST</t>
-        </is>
-      </c>
+      <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -2803,13 +2799,21 @@
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/uTZdgEKHTh12</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
@@ -2852,9 +2856,22 @@
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry</t>
+        </is>
+      </c>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
@@ -2899,19 +2916,15 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
@@ -2954,22 +2967,9 @@
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry</t>
-        </is>
-      </c>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
@@ -3004,16 +3004,8 @@
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>

--- a/*12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
+++ b/*12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
@@ -1311,12 +1311,13 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>work w/ Leyna</t>
+          <t>Red Camry stools,
+Trainer</t>
         </is>
       </c>
       <c r="X16" t="inlineStr"/>
@@ -1368,13 +1369,12 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>Red Camry stools,
-Trainer</t>
+          <t>Altima Stools</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
@@ -1426,14 +1426,10 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>Altima Stools</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr">
         <is>
@@ -1507,7 +1503,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -1580,7 +1576,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -1650,7 +1646,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -1715,7 +1711,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1784,14 +1780,10 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr">
         <is>
@@ -1862,7 +1854,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1923,10 +1915,14 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr"/>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>work w/ Carlie</t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr">
         <is>
@@ -1978,21 +1974,9 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>work w/ Carlie</t>
-        </is>
-      </c>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr">
         <is>
@@ -2105,7 +2089,11 @@
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>5:45 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr">
@@ -2156,7 +2144,7 @@
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>5:45 AM OFFICE MEET</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -2234,7 +2222,7 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -2295,7 +2283,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>O'CONNELL'S LAKESIDE LIQUOR, MONONA</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2332,7 +2320,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>O'CONNELL'S LAKESIDE LIQUOR, MONONA</t>
+          <t>6325 MONONA DRIVE</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2381,7 +2369,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>6325 MONONA DRIVE</t>
+          <t>https://goo.gl/maps/B3TANgvBHum</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2443,7 +2431,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/B3TANgvBHum</t>
+          <t>APPROX 10:00/10:30 AM START</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2504,7 +2492,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>APPROX 10:00/10:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2557,7 +2545,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>REDLINE MOBIL, DEFOREST</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2610,7 +2598,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>REDLINE MOBIL, DEFOREST</t>
+          <t>937 E HOLUM ST</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2667,7 +2655,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>937 E HOLUM ST</t>
+          <t>https://goo.gl/maps/uTZdgEKHTh12</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2710,11 +2698,7 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/uTZdgEKHTh12</t>
-        </is>
-      </c>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2754,9 +2738,21 @@
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
@@ -2801,17 +2797,18 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Wht Camry</t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
@@ -2858,20 +2855,15 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
@@ -2914,16 +2906,8 @@
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>

--- a/*12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
+++ b/*12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
@@ -1866,12 +1866,13 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
     </row>
@@ -1931,13 +1932,12 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -2227,21 +2227,9 @@
       </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>

--- a/*12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
+++ b/*12-28-25 to 01-03-26 Milwaukee Schedule.xlsx
@@ -1866,13 +1866,12 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
     </row>
@@ -1932,12 +1931,13 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -2227,9 +2227,21 @@
       </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
